--- a/results/2012_11_01_matrix_linux.xlsx
+++ b/results/2012_11_01_matrix_linux.xlsx
@@ -632,6 +632,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Matrix multiplication (Linux x64)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1051,6 +1070,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1184,6 +1208,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1317,6 +1346,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1450,6 +1484,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1577,37 +1616,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90770240"/>
-        <c:axId val="70351616"/>
+        <c:axId val="94949312"/>
+        <c:axId val="94949888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90770240"/>
+        <c:axId val="94949312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Edge length of matrix</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70351616"/>
+        <c:crossAx val="94949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70351616"/>
+        <c:axId val="94949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90770240"/>
+        <c:crossAx val="94949312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1639,10 +1718,10 @@
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1953,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
